--- a/Experiment 2, Prompt Engineering Evaluation Table.xlsx
+++ b/Experiment 2, Prompt Engineering Evaluation Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D Drive\Downloads\AGH\Winter Semester 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF28467-4CF7-4CC9-A5EC-1419C2CD63C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{289FFCC0-CF57-44B1-9D74-EC82010ABB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12120" yWindow="0" windowWidth="12240" windowHeight="19440" xr2:uid="{D2CBC9EB-DEDE-4D4B-AA82-D5AF8E57E488}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D2CBC9EB-DEDE-4D4B-AA82-D5AF8E57E488}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 2" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -448,27 +448,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,6 +517,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,9 +873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74A4D1-BF2D-4F35-A029-17157EAC151D}">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B29" sqref="B29"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,8 +888,8 @@
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="47.85546875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="47.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
@@ -934,10 +928,10 @@
       <c r="J1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="5" t="s">
         <v>73</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -992,12 +986,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>36</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -1011,11 +1003,11 @@
         <f>O2/15</f>
         <v>15.2</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="15">
         <f>SUM(H5+H8+H11+H14+H23+H26+H29+H32+H35+H41+H44)</f>
         <v>11</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="16">
         <f>Q2/15</f>
         <v>0.73333333333333328</v>
       </c>
@@ -1061,11 +1053,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -1083,7 +1074,7 @@
         <f xml:space="preserve"> SUM(H13)</f>
         <v>1</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="13">
         <f t="shared" ref="R3:R4" si="2">Q3/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -1095,10 +1086,10 @@
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="15">
         <v>8</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="15">
         <f t="shared" ref="V3:V4" si="3">U3/15</f>
         <v>0.53333333333333333</v>
       </c>
@@ -1133,13 +1124,13 @@
         <f xml:space="preserve"> SUM(F2:F4)/COUNT(F2:F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="17">
-        <v>1</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -1149,7 +1140,7 @@
         <f>SUM(Table1[[#This Row],[Number of steps]]+F7+F10+F13+F16+F19+F22+F25+F28+F31+F31+F34+F37+F40+F43+F46)</f>
         <v>263</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="15">
         <f>O4/15</f>
         <v>17.533333333333335</v>
       </c>
@@ -1157,15 +1148,15 @@
         <f>SUM(H13+H16)</f>
         <v>2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="13">
         <f t="shared" si="2"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="15">
         <f>SUM(I4+I19+I22+I34+I37+I40+I46)</f>
         <v>7</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="15">
         <f>S4/15</f>
         <v>0.46666666666666667</v>
       </c>
@@ -1176,11 +1167,11 @@
         <f t="shared" si="3"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="W4" s="22">
+      <c r="W4" s="15">
         <f>SUM(Table1[[#This Row],[Desired fomat count]]+D7+D10+D13+D16+D19+D22+D25+D28+D31+D34+D37+D40+D43+D46)</f>
         <v>10</v>
       </c>
-      <c r="X4" s="22">
+      <c r="X4" s="15">
         <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
@@ -1206,11 +1197,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="13">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="21" t="s">
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1233,11 +1223,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1263,11 +1252,10 @@
         <f xml:space="preserve"> SUM(F5:F7)/COUNT(F5:F7)</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="15" t="s">
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1292,11 +1280,10 @@
         <v>16</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="21" t="s">
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1321,11 +1308,10 @@
         <v>17</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1353,11 +1339,10 @@
         <f xml:space="preserve"> SUM(F8:F10)/COUNT(F8:F10)</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
         <v>42</v>
       </c>
       <c r="N10" t="s">
@@ -1385,11 +1370,10 @@
         <v>15</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="13">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="21" t="s">
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>30</v>
       </c>
       <c r="N11" t="s">
@@ -1417,14 +1401,13 @@
         <v>21</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="26" t="s">
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="19">
         <v>1</v>
       </c>
       <c r="N12" t="s">
@@ -1455,11 +1438,10 @@
         <f xml:space="preserve"> SUM(F11:F13)/COUNT(F11:F13)</f>
         <v>18.666666666666668</v>
       </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="21" t="s">
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="N13" t="s">
@@ -1487,11 +1469,10 @@
         <v>19</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="13">
-        <v>1</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="21" t="s">
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1516,14 +1497,13 @@
         <v>20</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="26" t="s">
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1551,11 +1531,10 @@
         <f xml:space="preserve"> SUM(F14:F16)/COUNT(F14:F16)</f>
         <v>20</v>
       </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="21" t="s">
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1580,15 +1559,13 @@
         <v>9</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="28" t="s">
+      <c r="H17" s="12"/>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1609,14 +1586,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="26" t="s">
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1642,13 +1618,13 @@
         <f xml:space="preserve"> SUM(F17:F19)/COUNT(F17:F19)</f>
         <v>3</v>
       </c>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19" t="s">
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1673,15 +1649,14 @@
         <v>9</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="29" t="s">
+      <c r="H20" s="12"/>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1706,13 +1681,13 @@
         <v>19</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
-      <c r="J21" s="19" t="s">
+      <c r="I21" s="14">
+        <v>1</v>
+      </c>
+      <c r="J21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1740,13 +1715,13 @@
         <f xml:space="preserve"> SUM(F20:F22)/COUNT(F20:F22)</f>
         <v>15.666666666666666</v>
       </c>
-      <c r="I22" s="17">
-        <v>1</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="I22" s="14">
+        <v>1</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1771,11 +1746,10 @@
         <v>16</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="13">
-        <v>1</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="21" t="s">
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1800,14 +1774,13 @@
         <v>25</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="26" t="s">
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1835,11 +1808,10 @@
         <f xml:space="preserve"> SUM(F23:F25)/COUNT(F23:F25)</f>
         <v>22.333333333333332</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="20" t="s">
+      <c r="J25" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1864,11 +1836,10 @@
         <v>19</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="13">
-        <v>1</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="21" t="s">
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1893,14 +1864,13 @@
         <v>20</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="26" t="s">
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1928,11 +1898,10 @@
         <f xml:space="preserve"> SUM(F26:F28)/COUNT(F26:F28)</f>
         <v>23.666666666666668</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="15" t="s">
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1957,11 +1926,10 @@
         <v>19</v>
       </c>
       <c r="G29" s="8"/>
-      <c r="H29" s="13">
-        <v>1</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="21" t="s">
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1986,14 +1954,13 @@
         <v>21</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="26" t="s">
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2021,11 +1988,10 @@
         <f xml:space="preserve"> SUM(F29:F31)/COUNT(F29:F31)</f>
         <v>21.666666666666668</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="15" t="s">
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2050,11 +2016,10 @@
         <v>16</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="13">
-        <v>1</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="21" t="s">
+      <c r="H32" s="12">
+        <v>1</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2079,14 +2044,13 @@
         <v>15</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="26" t="s">
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2114,13 +2078,13 @@
         <f xml:space="preserve"> SUM(F32:F34)/COUNT(F32:F34)</f>
         <v>18.333333333333332</v>
       </c>
-      <c r="I34" s="17">
-        <v>1</v>
-      </c>
-      <c r="J34" s="19" t="s">
+      <c r="I34" s="14">
+        <v>1</v>
+      </c>
+      <c r="J34" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2145,11 +2109,10 @@
         <v>19</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="13">
-        <v>1</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="21" t="s">
+      <c r="H35" s="12">
+        <v>1</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2174,14 +2137,13 @@
         <v>23</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="26" t="s">
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2205,17 +2167,17 @@
       <c r="F37" s="3">
         <v>32</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="18">
         <f xml:space="preserve"> SUM(F35:F37)/COUNT(F35:F37)</f>
         <v>24.666666666666668</v>
       </c>
-      <c r="I37" s="17">
-        <v>1</v>
-      </c>
-      <c r="J37" s="19" t="s">
+      <c r="I37" s="14">
+        <v>1</v>
+      </c>
+      <c r="J37" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2238,12 +2200,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="15" t="s">
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2266,11 +2226,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="12">
-        <v>1</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="21" t="s">
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2296,13 +2255,13 @@
         <f xml:space="preserve"> SUM(F38:F40)/COUNT(F38:F40)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="17">
-        <v>1</v>
-      </c>
-      <c r="J40" s="19" t="s">
+      <c r="I40" s="14">
+        <v>1</v>
+      </c>
+      <c r="J40" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K40" s="15" t="s">
+      <c r="K40" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2327,11 +2286,10 @@
         <v>16</v>
       </c>
       <c r="G41" s="6"/>
-      <c r="H41" s="13">
-        <v>1</v>
-      </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="21" t="s">
+      <c r="H41" s="12">
+        <v>1</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2356,11 +2314,10 @@
         <v>16</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" s="15" t="s">
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2386,14 +2343,13 @@
         <f xml:space="preserve"> SUM(F41:F43)/COUNT(F41:F43)</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" s="31" t="s">
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="31">
+      <c r="L43" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2418,11 +2374,10 @@
         <v>19</v>
       </c>
       <c r="G44" s="7"/>
-      <c r="H44" s="13">
-        <v>1</v>
-      </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="21" t="s">
+      <c r="H44" s="12">
+        <v>1</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2447,11 +2402,10 @@
         <v>21</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="15" t="s">
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2479,16 +2433,15 @@
         <f xml:space="preserve"> SUM(F44:F46)/COUNT(F44:F46)</f>
         <v>20.666666666666668</v>
       </c>
-      <c r="I46" s="17">
-        <v>1</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="18" t="s">
+      <c r="I46" s="14">
+        <v>1</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" t="s">
         <v>61</v>
       </c>
-      <c r="L46"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D47">
@@ -2503,8 +2456,7 @@
         <f>SUM(I2:I46)</f>
         <v>8</v>
       </c>
-      <c r="K47"/>
-      <c r="L47" s="15">
+      <c r="L47">
         <f>SUM(Table1[loop back count])</f>
         <v>10</v>
       </c>
@@ -2542,7 +2494,7 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="17" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2572,32 +2524,32 @@
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2611,6 +2563,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="84bae827-43eb-4799-b986-0b4b10c2bedf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100FF1B78D5E9E25C4C840B53239D764C24" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="746ce095a376785e56f8e1418f7e1413">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8f656d6-3613-40d7-a283-9b9e2fc0b499" xmlns:ns4="84bae827-43eb-4799-b986-0b4b10c2bedf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08323d50b603442337e480d3a3ca5dcf" ns3:_="" ns4:_="">
     <xsd:import namespace="c8f656d6-3613-40d7-a283-9b9e2fc0b499"/>
@@ -2851,24 +2820,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D707A04A-BCED-4762-AB66-82DA0D37D6A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="84bae827-43eb-4799-b986-0b4b10c2bedf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c8f656d6-3613-40d7-a283-9b9e2fc0b499"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="84bae827-43eb-4799-b986-0b4b10c2bedf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8299CB92-339A-442D-9737-C64AC30D1CE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E306B87B-AAE8-4C1E-AB81-3080AE2ADB92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2886,29 +2863,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8299CB92-339A-442D-9737-C64AC30D1CE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D707A04A-BCED-4762-AB66-82DA0D37D6A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="84bae827-43eb-4799-b986-0b4b10c2bedf"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c8f656d6-3613-40d7-a283-9b9e2fc0b499"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>